--- a/data/Vulnerability/S1_Assumptions_Test.xlsx
+++ b/data/Vulnerability/S1_Assumptions_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gmhcira\data\Vulnerability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1263C1CE-DD77-406C-88A1-9F7F981E0E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCBF147-92B9-449A-A788-E974A86635A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="95">
   <si>
     <t>Hazard(s)</t>
   </si>
@@ -261,10 +261,58 @@
     <t>Infrastructure type</t>
   </si>
   <si>
-    <t>['F7.1']</t>
-  </si>
-  <si>
-    <t>[63]</t>
+    <t>Check storyline paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A restricted access major divided highway, normally with 2 or more running lanes plus emergency hard shoulder. </t>
+  </si>
+  <si>
+    <t>The most important roads in a country's system that aren't motorways.</t>
+  </si>
+  <si>
+    <t>The next most important roads in a country's system, often linking larger towns.</t>
+  </si>
+  <si>
+    <t>The next most important roads in a country's system, often linking towns.</t>
+  </si>
+  <si>
+    <t>The next most important roads in a country's system, often linking smaller towns and villages.</t>
+  </si>
+  <si>
+    <t>['F7.4', 'F7.5', 'F7.6', 'F7.7']</t>
+  </si>
+  <si>
+    <t>[F7.8, F7.9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow velocity. Abudance of sophisticated accessories. </t>
+  </si>
+  <si>
+    <t>There are more road curves. Include them as well?</t>
+  </si>
+  <si>
+    <t>[72]</t>
+  </si>
+  <si>
+    <t>[70, 75]</t>
+  </si>
+  <si>
+    <t>[69, 81]</t>
+  </si>
+  <si>
+    <t>[68, 74, 82, 89, 90]</t>
+  </si>
+  <si>
+    <t>[71, 76, 88]</t>
+  </si>
+  <si>
+    <t>Fragility functions (Flow velocity. Abudance of sophisticated accessories.) and construction costs</t>
+  </si>
+  <si>
+    <t>[73, 77, 83]</t>
+  </si>
+  <si>
+    <t>Fragility functions (Flow velocity).</t>
   </si>
 </sst>
 </file>
@@ -662,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -735,117 +783,143 @@
       <c r="H3" s="1"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="H4" s="5"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J4" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>77</v>
+      <c r="C6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="4"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>77</v>
+      <c r="C7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="4"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>77</v>
+      <c r="C8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="4"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="4"/>
@@ -858,10 +932,12 @@
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -878,7 +954,9 @@
       <c r="C11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -895,7 +973,9 @@
       <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1198,15 +1278,10 @@
   <hyperlinks>
     <hyperlink ref="C10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C11" r:id="rId8" display="\\" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C11" r:id="rId3" display="\\" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/data/Vulnerability/S1_Assumptions_Test.xlsx
+++ b/data/Vulnerability/S1_Assumptions_Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gmhcira\data\Vulnerability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCBF147-92B9-449A-A788-E974A86635A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8874AEB-9884-41B6-B5FB-2BE06BA9D416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flooding assumptions" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,28 @@
     <sheet name="Cyclone assumptions" sheetId="7" r:id="rId3"/>
     <sheet name="Landslide assumptions" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="118">
   <si>
     <t>Hazard(s)</t>
   </si>
@@ -165,9 +176,6 @@
     <t>Facility used to treat wastewater</t>
   </si>
   <si>
-    <t>Includes OSM tags rail, subway, tram, construction, funicular, light_rail, narrow_gauge --&gt; consider to decatogerize them??</t>
-  </si>
-  <si>
     <t>Motorway</t>
   </si>
   <si>
@@ -228,9 +236,6 @@
     <t>Vulnerability ID number</t>
   </si>
   <si>
-    <t>["","",""]</t>
-  </si>
-  <si>
     <t>Maximum damage ID number</t>
   </si>
   <si>
@@ -261,9 +266,6 @@
     <t>Infrastructure type</t>
   </si>
   <si>
-    <t>Check storyline paper</t>
-  </si>
-  <si>
     <t xml:space="preserve">A restricted access major divided highway, normally with 2 or more running lanes plus emergency hard shoulder. </t>
   </si>
   <si>
@@ -282,15 +284,6 @@
     <t>['F7.4', 'F7.5', 'F7.6', 'F7.7']</t>
   </si>
   <si>
-    <t>[F7.8, F7.9]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow velocity. Abudance of sophisticated accessories. </t>
-  </si>
-  <si>
-    <t>There are more road curves. Include them as well?</t>
-  </si>
-  <si>
     <t>[72]</t>
   </si>
   <si>
@@ -306,20 +299,119 @@
     <t>[71, 76, 88]</t>
   </si>
   <si>
-    <t>Fragility functions (Flow velocity. Abudance of sophisticated accessories.) and construction costs</t>
-  </si>
-  <si>
     <t>[73, 77, 83]</t>
   </si>
   <si>
-    <t>Fragility functions (Flow velocity).</t>
+    <t xml:space="preserve">There are more road curves, selected only the van Ginkel curves. Include the others as well? Also, how to deal with the various cost estimates. Write code to select all the cost estimates, provide a range and do calculations for minimum, maximum and median/mean?  </t>
+  </si>
+  <si>
+    <t>Full sized passenger or freight train tracks in the standard gauge for the country or state.</t>
+  </si>
+  <si>
+    <t>['F8.1', 'F8.2', 'F8.3', 'F8.4', 'F8.5', 'F8.6', 'F8.6a', 'F8.6b', 'F8.7']</t>
+  </si>
+  <si>
+    <t>[46, 49, 50, 51, 52, 53, 54, 55, 56, 57, 61, 62, 78]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also include F8.6a F8.6b? We don't have lower and upper boundaries of other curves? Asset value is highly dependent on whether the rail is electrified or not. Use this kind of additional information for analysis and discuss ways to code it? Note: for the Netherlands for example, only for 51% information is provided on electrification of the railways. Use specific (non-)electrification values for known assets and treat it as an unknown for the others? OR make assumptions about electrification of railway? </t>
+  </si>
+  <si>
+    <t>Remaining type of roads, such as residential streets where pedestrians have legal priority over cars, speeds are kept very low.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a vulnerability curve for airports is provided by Kok et al. (2005). They also provide a maximum damage value given in damage per exposed footprint of an airport (euro/m2). The usage of this in combination with the spatial airport data, which are extracted from OSM in polygon format, may lead to an overestimation of the direct damages to airports. These polygons represent the airports as a whole, including areas that are covered by structural components, but also areas that are less important for risk analysis (e.g., grass). We therefore decide to break down the direct damages to airports by presenting structural damages to terminals and runways.  For terminals, we use the vulnerability curve of Kok et al. (2005) in combination with maximum damage based on construction costs estimated by Carruthers (2013). Due to absence of more specific vulnerability curves for runways, we apply the vulnerability curve of Huizinga et al. (2017) estimated for roads. The maximum damages are based on construction costs for runway types made of concrete and asphalt (Gibson et al., 2011). </t>
+  </si>
+  <si>
+    <t>['F7.8', 'F7.9']</t>
+  </si>
+  <si>
+    <t>['F9.1','F9.2', 'F9.3']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3]</t>
+  </si>
+  <si>
+    <t>Maximum damages range between 98-114 euros/m2. Do we (also) want to calculate the damage on airport polygon data?</t>
+  </si>
+  <si>
+    <t>Add Carruthers (2013) data to database</t>
+  </si>
+  <si>
+    <t>Fragility functions and asset values</t>
+  </si>
+  <si>
+    <t>Fragility functions (Flow velocity. Abudance of sophisticated accessories.) and asset values</t>
+  </si>
+  <si>
+    <t>Fragility functions (Flow velocity) and asset values</t>
+  </si>
+  <si>
+    <t>Fragility functions (Flow velocity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do we want to calculate airport damages? Based on aerodrome polygon or specific assets within aerodrome? Now using terminal and runway, but can also add other aerodrome assets as well? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Towers with greater heigts (could be above 100m) for transmitting radio applications like television, radio, mobile phone or officials radio. It is often made from concrete and usually a visible landmark. </t>
+  </si>
+  <si>
+    <t>['F10.1']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We assume that masts are more vulnerable to flooding as they are smaller structures compared to communication towers. We therefore apply the vulnerability curve proposed by Kok et al. (2015) for electricity and communication systems, which assumes higher damage factors compared to the function used for communication towers. The maximum damage of masts is based on construction costs provided by Foster (2015) and Liebman (2018). </t>
+  </si>
+  <si>
+    <t>Add Foster (2015) and Liebman (2018) data to database</t>
+  </si>
+  <si>
+    <t>Copy paste power tower curve here</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We use the vulnerability curve of FEMA (2013) that we also apply for large power towers for communication towers, because of similar structural characteristics. We assume that only little damage occurs to large communication towers, and this is what this vulnerability curve embodies. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">We use this in combination with maximum damages for 'other community facility' provided by FEMA (2013) as no specific construction cost data were available for communication towers. </t>
+    </r>
+  </si>
+  <si>
+    <t>If multiple curves, then vulnerability curves. Otherwise, -25% and +25% or asset value</t>
+  </si>
+  <si>
+    <t>Asset values</t>
+  </si>
+  <si>
+    <t>['F21.6', 'F21.8', 'F21.9', 'F21.12']</t>
+  </si>
+  <si>
+    <t>['F21.6', 'F21.7', 'F21.8', 'F21.10', 'F21.11', 'F21.13']</t>
+  </si>
+  <si>
+    <t>[8, 9, 11*, 91, 92]</t>
+  </si>
+  <si>
+    <t>[11*, 12, 13, 14]</t>
+  </si>
+  <si>
+    <t>Include Huizinga max. damages per country?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +443,21 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -391,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -428,6 +535,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,7 +823,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,7 +838,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -741,22 +853,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>2</v>
@@ -766,65 +878,73 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>45</v>
+      <c r="C3" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H4" s="5"/>
       <c r="J4" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H5" s="5"/>
       <c r="J5" s="3"/>
@@ -834,19 +954,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -858,19 +978,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -882,105 +1002,130 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="4"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="4"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="319" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="4" customFormat="1" ht="319" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" ht="319" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="J12" s="8"/>
+      <c r="H12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
@@ -1010,8 +1155,6 @@
       <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1108,7 +1251,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1116,16 +1259,24 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>111</v>
+      </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -1133,13 +1284,21 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -1204,20 +1363,20 @@
         <v>30</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H26" s="9"/>
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>52</v>
+      <c r="C27" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="H27" s="5"/>
       <c r="J27" s="8"/>
@@ -1249,11 +1408,19 @@
       <c r="C29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="G29" s="4"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
@@ -1265,20 +1432,28 @@
       <c r="C30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="G30" s="4"/>
-      <c r="J30" s="6"/>
+      <c r="J30" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C11" r:id="rId3" display="\\" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C9" r:id="rId1" display="\\" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C11" r:id="rId2" display="\\" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId3" display="\\" xr:uid="{1E3AFFB4-656F-459B-9194-FB3F0C197691}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -1306,7 +1481,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1327,16 +1502,16 @@
         <v>6</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>2</v>
@@ -1344,7 +1519,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1359,13 +1534,13 @@
     </row>
     <row r="4" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1374,13 +1549,13 @@
     </row>
     <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1389,13 +1564,13 @@
     </row>
     <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1405,13 +1580,13 @@
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1421,13 +1596,13 @@
     </row>
     <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1437,10 +1612,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -1453,7 +1628,7 @@
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>16</v>
@@ -1468,13 +1643,13 @@
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1483,13 +1658,13 @@
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1498,7 +1673,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
@@ -1514,7 +1689,7 @@
     </row>
     <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>25</v>
@@ -1530,7 +1705,7 @@
     </row>
     <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -1546,7 +1721,7 @@
     </row>
     <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -1561,7 +1736,7 @@
     </row>
     <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
@@ -1577,7 +1752,7 @@
     </row>
     <row r="18" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>19</v>
@@ -1593,7 +1768,7 @@
     </row>
     <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>20</v>
@@ -1609,13 +1784,13 @@
     </row>
     <row r="20" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -1624,13 +1799,13 @@
     </row>
     <row r="21" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -1639,7 +1814,7 @@
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>21</v>
@@ -1653,7 +1828,7 @@
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>22</v>
@@ -1667,7 +1842,7 @@
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
@@ -1682,7 +1857,7 @@
     </row>
     <row r="25" spans="1:8" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>24</v>
@@ -1696,33 +1871,33 @@
     </row>
     <row r="26" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="5"/>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="5"/>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>11</v>
@@ -1737,7 +1912,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>33</v>
@@ -1751,7 +1926,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>34</v>
@@ -1804,7 +1979,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1825,16 +2000,16 @@
         <v>6</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>2</v>
@@ -1846,7 +2021,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1861,13 +2036,13 @@
     </row>
     <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1876,13 +2051,13 @@
     </row>
     <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1891,13 +2066,13 @@
     </row>
     <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1907,13 +2082,13 @@
     </row>
     <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1923,13 +2098,13 @@
     </row>
     <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1939,10 +2114,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -1955,7 +2130,7 @@
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>16</v>
@@ -1970,13 +2145,13 @@
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1985,13 +2160,13 @@
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2000,7 +2175,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
@@ -2016,7 +2191,7 @@
     </row>
     <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>25</v>
@@ -2033,7 +2208,7 @@
     </row>
     <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -2050,7 +2225,7 @@
     </row>
     <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -2065,7 +2240,7 @@
     </row>
     <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
@@ -2081,7 +2256,7 @@
     </row>
     <row r="18" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>19</v>
@@ -2098,7 +2273,7 @@
     </row>
     <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>20</v>
@@ -2115,13 +2290,13 @@
     </row>
     <row r="20" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -2130,13 +2305,13 @@
     </row>
     <row r="21" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -2145,7 +2320,7 @@
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>21</v>
@@ -2159,7 +2334,7 @@
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>22</v>
@@ -2173,7 +2348,7 @@
     </row>
     <row r="24" spans="1:9" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
@@ -2188,7 +2363,7 @@
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>24</v>
@@ -2203,33 +2378,33 @@
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="5"/>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:9" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="5"/>
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>11</v>
@@ -2244,7 +2419,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>33</v>
@@ -2258,7 +2433,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>34</v>
@@ -2310,7 +2485,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -2331,16 +2506,16 @@
         <v>6</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>2</v>
@@ -2352,7 +2527,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -2367,13 +2542,13 @@
     </row>
     <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -2382,13 +2557,13 @@
     </row>
     <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -2397,13 +2572,13 @@
     </row>
     <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -2413,13 +2588,13 @@
     </row>
     <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -2429,13 +2604,13 @@
     </row>
     <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -2445,10 +2620,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -2461,7 +2636,7 @@
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>16</v>
@@ -2476,13 +2651,13 @@
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2491,13 +2666,13 @@
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2506,7 +2681,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
@@ -2522,7 +2697,7 @@
     </row>
     <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>25</v>
@@ -2539,7 +2714,7 @@
     </row>
     <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -2556,7 +2731,7 @@
     </row>
     <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -2571,7 +2746,7 @@
     </row>
     <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
@@ -2587,7 +2762,7 @@
     </row>
     <row r="18" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>19</v>
@@ -2604,7 +2779,7 @@
     </row>
     <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>20</v>
@@ -2621,13 +2796,13 @@
     </row>
     <row r="20" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -2636,13 +2811,13 @@
     </row>
     <row r="21" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -2651,7 +2826,7 @@
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>21</v>
@@ -2665,7 +2840,7 @@
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>22</v>
@@ -2679,7 +2854,7 @@
     </row>
     <row r="24" spans="1:9" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
@@ -2694,7 +2869,7 @@
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>24</v>
@@ -2709,33 +2884,33 @@
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="5"/>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:9" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="5"/>
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>11</v>
@@ -2750,7 +2925,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>33</v>
@@ -2764,7 +2939,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>34</v>

--- a/data/Vulnerability/S1_Assumptions_Test.xlsx
+++ b/data/Vulnerability/S1_Assumptions_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gmhcira\data\Vulnerability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8874AEB-9884-41B6-B5FB-2BE06BA9D416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6625B5F9-D3FF-4883-A191-4B3748B78212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flooding assumptions" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="172">
   <si>
     <t>Hazard(s)</t>
   </si>
@@ -363,9 +363,6 @@
   </si>
   <si>
     <t>Add Foster (2015) and Liebman (2018) data to database</t>
-  </si>
-  <si>
-    <t>Copy paste power tower curve here</t>
   </si>
   <si>
     <t>[5]</t>
@@ -406,12 +403,213 @@
   <si>
     <t>Include Huizinga max. damages per country?</t>
   </si>
+  <si>
+    <t>Clinic</t>
+  </si>
+  <si>
+    <t>Doctors</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Dentist</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>Physiotherapist</t>
+  </si>
+  <si>
+    <t>Alternative</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>Optometrist</t>
+  </si>
+  <si>
+    <t>Rehabilitation</t>
+  </si>
+  <si>
+    <t>Blood donation</t>
+  </si>
+  <si>
+    <t>Birthing center</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>Kindergarten</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>['F1.1', 'F1.2', 'F1.3', 'F1.4', 'F1.5', 'F1.6', 'F1.7']</t>
+  </si>
+  <si>
+    <t>[4, 10, 23, 28, 29, 30, 113-179]</t>
+  </si>
+  <si>
+    <t>Indicate tye of power plant? Use tag: plant:source for this, needs to be added to OSM flex in case we're interested in further specifying this. Also, add code that certain vulnerability curves can only be used with certain asset values? E.g., wind turbine curve can only be combined with asset value for wind turbines? Or we can just stick with the general curves and asset values (of FEMA)</t>
+  </si>
+  <si>
+    <t>Fragility functions (capacity and power plant type) and asset value (capacity and power plant type)</t>
+  </si>
+  <si>
+    <t>['F2.1', 'F2.2', 'F2.3']</t>
+  </si>
+  <si>
+    <t>[94, 95, 96, 97]</t>
+  </si>
+  <si>
+    <t>Fragility functions and asset value (capacity-based)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the power towers and power poles we apply the vulnerability curve for T&amp;D systems. Again, maximum damages were not provided and we therefore use construction costs for power towers and poles. Midcontinent Interdependent System Operator (MISO) provides yearly reports with estimated costs for various energy assets, including power towers and poles. OSM describes power towers as assets that carry high-voltage overhead power lines, and are often constructed from steel, while power poles are often made from wood. For this reason, we use the construction costs for single- and double circuit steel towers built for a range of high-voltage overhead lines for determining the maximum damage for power towers, while we only use construction costs for wooden poles (single and double circuit) for determining the maximum damage for power poles.   </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[34] </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ MISO</t>
+    </r>
+  </si>
+  <si>
+    <t>Fragility functions and asset value (design-based)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[31, 32, 33] </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ MISO</t>
+    </r>
+  </si>
+  <si>
+    <t>['F5.1']</t>
+  </si>
+  <si>
+    <t>['F6.1', 'F6.2']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We conduct the construction costs for underground cables from Hall (2009). Based on a survey conducted by Burns &amp; McDonnell (n.d.), underground cables are not likely to suffer direct damage due to flooding. Flooding impacts the above grade equipment that the cables are connected with, and this failure may propagate into the whole energy circuit. This finding is also supported by Hall (2009). However, uprooting of trees (Hall, 2009) and soil liquefaction (Miyamoto, 2019) may cause damages to underground infrastructure. For this study, we assume that no damage occurs to underground cables due to flooding as we assume a relative low flow velocity.  </t>
+  </si>
+  <si>
+    <t>add Hall (2009) data to database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We therefore base our maximum damages on construction costs for overhead lines in urban (for lines) and rural (for minor lines) areas provided by Hall (2009). </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[24, 25, 26, 27, 36, 37, 38, 39] </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ Hall (2009)</t>
+    </r>
+  </si>
+  <si>
+    <t>Asset values (construction material?)</t>
+  </si>
+  <si>
+    <t>Reclassify to line? Or adjust asset values (e.g., use construction costs for transmission lines carried on wooden poles for minor lines and construction costs for better quality materials for lines)</t>
+  </si>
+  <si>
+    <t>['F18.1', 'F18.2', 'F18.3', 'F18.4', 'F18.5', 'F18.6']</t>
+  </si>
+  <si>
+    <t>[102, 103]</t>
+  </si>
+  <si>
+    <t>Fragility functions (capacity-based and design standards) and asset values</t>
+  </si>
+  <si>
+    <t>['F15.1']</t>
+  </si>
+  <si>
+    <t>[112]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset value </t>
+  </si>
+  <si>
+    <t>[-25% - +25%]</t>
+  </si>
+  <si>
+    <t>['F13.4']</t>
+  </si>
+  <si>
+    <t>['F13.1', 'F13.2', 'F13.3', 'F13.5']</t>
+  </si>
+  <si>
+    <t>Water storage tank</t>
+  </si>
+  <si>
+    <t>Storage tanks are containers that hold drinking water, used for short- or long-term storage</t>
+  </si>
+  <si>
+    <t>[107]</t>
+  </si>
+  <si>
+    <t>[104, 105, 106, 108]</t>
+  </si>
+  <si>
+    <t>['F13.1', 'F13.2', 'F13.3', 'F13.4', 'F13.5']</t>
+  </si>
+  <si>
+    <t>[104, 105, 106, 107, 108]</t>
+  </si>
+  <si>
+    <t>Fragility functions (construction material, storage tank height) and asset values (construction material, storage tank height)</t>
+  </si>
+  <si>
+    <t>['F14.1', 'F14.2', 'F14.3', 'F14.4', 'F14.5', 'F14.6', 'F14.7', 'F14.8', 'F14.9', 'F14.10']</t>
+  </si>
+  <si>
+    <t>[109, 110, 111]</t>
+  </si>
+  <si>
+    <t>Fragility functions (capacity and design type) and asset value (capacity-based)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,9 +653,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -495,10 +700,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -522,9 +728,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -532,16 +735,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -820,42 +1040,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.81640625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="25.7265625" customWidth="1"/>
-    <col min="8" max="8" width="45" customWidth="1"/>
-    <col min="10" max="10" width="100.26953125" style="2" customWidth="1"/>
+    <col min="4" max="7" width="25.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="1"/>
+    <col min="10" max="10" width="100.26953125" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:10" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" s="22" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -873,41 +1095,39 @@
       <c r="H2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -923,15 +1143,15 @@
         <v>100</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -947,19 +1167,18 @@
         <v>100</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -970,20 +1189,19 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="8"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -994,20 +1212,19 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="8"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1018,20 +1235,19 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="8"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1042,57 +1258,55 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="8"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" ht="319" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="319" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
         <v>93</v>
       </c>
@@ -1100,11 +1314,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="4" customFormat="1" ht="319" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:10" s="5" customFormat="1" ht="319" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1113,13 +1327,12 @@
       <c r="D12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="16" t="s">
         <v>98</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
         <v>93</v>
       </c>
@@ -1127,323 +1340,729 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:10" ht="203" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="H13" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="H14" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="D15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="H15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="D16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="6"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="D17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" ht="261" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="D18" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="H18" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" ht="261" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="D19" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="8"/>
+      <c r="H19" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="145" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>111</v>
+      <c r="F20" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="J20" s="6"/>
+        <v>109</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="145" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>112</v>
+      <c r="F21" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    </row>
+    <row r="22" spans="1:10" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:10" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="1:10" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="1:10" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="10" t="s">
+      <c r="D26" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:10" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" s="23" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="J30" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="4" t="s">
+      <c r="E42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="J29" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="4" t="s">
+    </row>
+    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="F43" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="J30" s="4" t="s">
-        <v>117</v>
+    </row>
+    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1454,9 +2073,12 @@
     <hyperlink ref="C9" r:id="rId1" display="\\" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C11" r:id="rId2" display="\\" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="C10" r:id="rId3" display="\\" xr:uid="{1E3AFFB4-656F-459B-9194-FB3F0C197691}"/>
+    <hyperlink ref="C30" r:id="rId4" xr:uid="{4CC1A6A9-4232-45F0-9201-EC8F28D3C30E}"/>
+    <hyperlink ref="C31:C45" r:id="rId5" display="\\" xr:uid="{433B81EC-3149-4D3F-B6E1-418BFF9CE36B}"/>
+    <hyperlink ref="C46" r:id="rId6" xr:uid="{35829217-814D-485A-9071-E3F41459068B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1491,29 +2113,29 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:8" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1989,33 +2611,33 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:10" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:10" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2495,33 +3117,33 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:10" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:10" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="14" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Vulnerability/S1_Assumptions_Test.xlsx
+++ b/data/Vulnerability/S1_Assumptions_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gmhcira\data\Vulnerability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6625B5F9-D3FF-4883-A191-4B3748B78212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B158D5C1-E966-488A-99B8-D09DA1BFB515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="176">
   <si>
     <t>Hazard(s)</t>
   </si>
@@ -309,9 +309,6 @@
   </si>
   <si>
     <t>['F8.1', 'F8.2', 'F8.3', 'F8.4', 'F8.5', 'F8.6', 'F8.6a', 'F8.6b', 'F8.7']</t>
-  </si>
-  <si>
-    <t>[46, 49, 50, 51, 52, 53, 54, 55, 56, 57, 61, 62, 78]</t>
   </si>
   <si>
     <t xml:space="preserve">Also include F8.6a F8.6b? We don't have lower and upper boundaries of other curves? Asset value is highly dependent on whether the rail is electrified or not. Use this kind of additional information for analysis and discuss ways to code it? Note: for the Netherlands for example, only for 51% information is provided on electrification of the railways. Use specific (non-)electrification values for known assets and treat it as an unknown for the others? OR make assumptions about electrification of railway? </t>
@@ -578,9 +575,6 @@
     <t>Water storage tank</t>
   </si>
   <si>
-    <t>Storage tanks are containers that hold drinking water, used for short- or long-term storage</t>
-  </si>
-  <si>
     <t>[107]</t>
   </si>
   <si>
@@ -603,6 +597,24 @@
   </si>
   <si>
     <t>Fragility functions (capacity and design type) and asset value (capacity-based)</t>
+  </si>
+  <si>
+    <t>[46, 49, 50, 51, 52, 53, 54, 55, 56, 61, 62, 78]</t>
+  </si>
+  <si>
+    <t>Include cost number 57?</t>
+  </si>
+  <si>
+    <t>Maximum damage ID number (based on original file - delete)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storage tanks are containers that hold drinking water, used for short- or long-term storage. Could be overground, underground or partially underground. </t>
+  </si>
+  <si>
+    <t>Structure that contains a water tank at an altitude to pressurize the water distribution network. Equivalent to an elevated storage tank.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water works  (or water treatment plant) are structures where drinking water is found and applied to the waterpipes network. The public supply of water is stored and treated in this system of buildings and pipes. </t>
   </si>
 </sst>
 </file>
@@ -738,14 +750,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -758,6 +764,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1040,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1051,26 +1063,27 @@
     <col min="1" max="1" width="13.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.81640625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="25.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="45" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="1"/>
-    <col min="10" max="10" width="100.26953125" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="8" width="25.7265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="45" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="1"/>
+    <col min="11" max="11" width="100.26953125" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:10" s="22" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:12" s="20" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -1087,20 +1100,23 @@
         <v>65</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="18"/>
+      <c r="K2" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1114,16 +1130,22 @@
         <v>89</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="L3" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1140,14 +1162,17 @@
         <v>84</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="J4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="K4" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1164,11 +1189,14 @@
         <v>83</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1179,19 +1207,22 @@
         <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>82</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1202,19 +1233,22 @@
         <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>85</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1225,19 +1259,22 @@
         <v>79</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>81</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1245,22 +1282,25 @@
         <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" ht="319" x14ac:dyDescent="0.35">
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="319" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1271,24 +1311,27 @@
         <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" ht="319" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="319" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -1299,22 +1342,25 @@
         <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" ht="319" x14ac:dyDescent="0.35">
+      <c r="F11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="319" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
@@ -1328,19 +1374,22 @@
         <v>80</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="203" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="203" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
@@ -1351,21 +1400,24 @@
         <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="F13" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1376,19 +1428,22 @@
         <v>35</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" s="5"/>
+        <v>149</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1399,22 +1454,25 @@
         <v>36</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="5"/>
+        <v>149</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
@@ -1425,22 +1483,25 @@
         <v>39</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="5"/>
+        <v>134</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="J16" s="5"/>
+      <c r="K16" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
@@ -1451,19 +1512,22 @@
         <v>40</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" ht="261" x14ac:dyDescent="0.35">
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="261" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -1474,21 +1538,24 @@
         <v>38</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" ht="261" x14ac:dyDescent="0.35">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" ht="261" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1499,21 +1566,24 @@
         <v>37</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+      <c r="G19" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -1521,23 +1591,26 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -1548,20 +1621,23 @@
         <v>48</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:11" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1569,23 +1645,26 @@
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F22" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
@@ -1596,20 +1675,23 @@
         <v>42</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>3</v>
       </c>
@@ -1620,38 +1702,44 @@
         <v>29</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="F25" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="1:11" s="5" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
@@ -1659,423 +1747,468 @@
         <v>24</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="1:11" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" s="23" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="1:11" s="21" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>44</v>
+        <v>116</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G29" s="5"/>
+        <v>114</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="H29" s="5"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K29" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="J30" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>112</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="F42" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="F43" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D44" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="F44" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D45" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="F45" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>99</v>
+      <c r="G45" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1" display="\\" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C11" r:id="rId2" display="\\" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="C10" r:id="rId3" display="\\" xr:uid="{1E3AFFB4-656F-459B-9194-FB3F0C197691}"/>
-    <hyperlink ref="C30" r:id="rId4" xr:uid="{4CC1A6A9-4232-45F0-9201-EC8F28D3C30E}"/>
-    <hyperlink ref="C31:C45" r:id="rId5" display="\\" xr:uid="{433B81EC-3149-4D3F-B6E1-418BFF9CE36B}"/>
-    <hyperlink ref="C46" r:id="rId6" xr:uid="{35829217-814D-485A-9071-E3F41459068B}"/>
+    <hyperlink ref="C29" r:id="rId4" xr:uid="{4CC1A6A9-4232-45F0-9201-EC8F28D3C30E}"/>
+    <hyperlink ref="C30:C44" r:id="rId5" display="\\" xr:uid="{433B81EC-3149-4D3F-B6E1-418BFF9CE36B}"/>
+    <hyperlink ref="C45" r:id="rId6" xr:uid="{35829217-814D-485A-9071-E3F41459068B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -2102,16 +2235,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
@@ -2600,16 +2733,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
@@ -3106,16 +3239,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">

--- a/data/Vulnerability/S1_Assumptions_Test.xlsx
+++ b/data/Vulnerability/S1_Assumptions_Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gmhcira\data\Vulnerability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B158D5C1-E966-488A-99B8-D09DA1BFB515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBFC096-EDD0-404E-B59D-F38E8B85A99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flooding assumptions" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="204">
   <si>
     <t>Hazard(s)</t>
   </si>
@@ -317,9 +317,6 @@
     <t>Remaining type of roads, such as residential streets where pedestrians have legal priority over cars, speeds are kept very low.</t>
   </si>
   <si>
-    <t xml:space="preserve">a vulnerability curve for airports is provided by Kok et al. (2005). They also provide a maximum damage value given in damage per exposed footprint of an airport (euro/m2). The usage of this in combination with the spatial airport data, which are extracted from OSM in polygon format, may lead to an overestimation of the direct damages to airports. These polygons represent the airports as a whole, including areas that are covered by structural components, but also areas that are less important for risk analysis (e.g., grass). We therefore decide to break down the direct damages to airports by presenting structural damages to terminals and runways.  For terminals, we use the vulnerability curve of Kok et al. (2005) in combination with maximum damage based on construction costs estimated by Carruthers (2013). Due to absence of more specific vulnerability curves for runways, we apply the vulnerability curve of Huizinga et al. (2017) estimated for roads. The maximum damages are based on construction costs for runway types made of concrete and asphalt (Gibson et al., 2011). </t>
-  </si>
-  <si>
     <t>['F7.8', 'F7.9']</t>
   </si>
   <si>
@@ -329,9 +326,6 @@
     <t>[1, 2, 3]</t>
   </si>
   <si>
-    <t>Maximum damages range between 98-114 euros/m2. Do we (also) want to calculate the damage on airport polygon data?</t>
-  </si>
-  <si>
     <t>Add Carruthers (2013) data to database</t>
   </si>
   <si>
@@ -356,33 +350,9 @@
     <t>['F10.1']</t>
   </si>
   <si>
-    <t xml:space="preserve">We assume that masts are more vulnerable to flooding as they are smaller structures compared to communication towers. We therefore apply the vulnerability curve proposed by Kok et al. (2015) for electricity and communication systems, which assumes higher damage factors compared to the function used for communication towers. The maximum damage of masts is based on construction costs provided by Foster (2015) and Liebman (2018). </t>
-  </si>
-  <si>
-    <t>Add Foster (2015) and Liebman (2018) data to database</t>
-  </si>
-  <si>
     <t>[5]</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">We use the vulnerability curve of FEMA (2013) that we also apply for large power towers for communication towers, because of similar structural characteristics. We assume that only little damage occurs to large communication towers, and this is what this vulnerability curve embodies. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">We use this in combination with maximum damages for 'other community facility' provided by FEMA (2013) as no specific construction cost data were available for communication towers. </t>
-    </r>
-  </si>
-  <si>
-    <t>If multiple curves, then vulnerability curves. Otherwise, -25% and +25% or asset value</t>
-  </si>
-  <si>
     <t>Asset values</t>
   </si>
   <si>
@@ -473,7 +443,121 @@
     <t>Fragility functions and asset value (capacity-based)</t>
   </si>
   <si>
-    <t xml:space="preserve">For the power towers and power poles we apply the vulnerability curve for T&amp;D systems. Again, maximum damages were not provided and we therefore use construction costs for power towers and poles. Midcontinent Interdependent System Operator (MISO) provides yearly reports with estimated costs for various energy assets, including power towers and poles. OSM describes power towers as assets that carry high-voltage overhead power lines, and are often constructed from steel, while power poles are often made from wood. For this reason, we use the construction costs for single- and double circuit steel towers built for a range of high-voltage overhead lines for determining the maximum damage for power towers, while we only use construction costs for wooden poles (single and double circuit) for determining the maximum damage for power poles.   </t>
+    <t>Fragility functions and asset value (design-based)</t>
+  </si>
+  <si>
+    <t>['F5.1']</t>
+  </si>
+  <si>
+    <t>['F6.1', 'F6.2']</t>
+  </si>
+  <si>
+    <t>add Hall (2009) data to database</t>
+  </si>
+  <si>
+    <t>Asset values (construction material?)</t>
+  </si>
+  <si>
+    <t>['F18.1', 'F18.2', 'F18.3', 'F18.4', 'F18.5', 'F18.6']</t>
+  </si>
+  <si>
+    <t>[102, 103]</t>
+  </si>
+  <si>
+    <t>Fragility functions (capacity-based and design standards) and asset values</t>
+  </si>
+  <si>
+    <t>['F15.1']</t>
+  </si>
+  <si>
+    <t>[112]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset value </t>
+  </si>
+  <si>
+    <t>[-25% - +25%]</t>
+  </si>
+  <si>
+    <t>['F13.4']</t>
+  </si>
+  <si>
+    <t>['F13.1', 'F13.2', 'F13.3', 'F13.5']</t>
+  </si>
+  <si>
+    <t>Water storage tank</t>
+  </si>
+  <si>
+    <t>[107]</t>
+  </si>
+  <si>
+    <t>[104, 105, 106, 108]</t>
+  </si>
+  <si>
+    <t>['F13.1', 'F13.2', 'F13.3', 'F13.4', 'F13.5']</t>
+  </si>
+  <si>
+    <t>[104, 105, 106, 107, 108]</t>
+  </si>
+  <si>
+    <t>Fragility functions (construction material, storage tank height) and asset values (construction material, storage tank height)</t>
+  </si>
+  <si>
+    <t>['F14.1', 'F14.2', 'F14.3', 'F14.4', 'F14.5', 'F14.6', 'F14.7', 'F14.8', 'F14.9', 'F14.10']</t>
+  </si>
+  <si>
+    <t>[109, 110, 111]</t>
+  </si>
+  <si>
+    <t>Fragility functions (capacity and design type) and asset value (capacity-based)</t>
+  </si>
+  <si>
+    <t>[46, 49, 50, 51, 52, 53, 54, 55, 56, 61, 62, 78]</t>
+  </si>
+  <si>
+    <t>Include cost number 57?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storage tanks are containers that hold drinking water, used for short- or long-term storage. Could be overground, underground or partially underground. </t>
+  </si>
+  <si>
+    <t>Structure that contains a water tank at an altitude to pressurize the water distribution network. Equivalent to an elevated storage tank.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water works  (or water treatment plant) are structures where drinking water is found and applied to the waterpipes network. The public supply of water is stored and treated in this system of buildings and pipes. </t>
+  </si>
+  <si>
+    <t>Maximum damage ID number (based on version 1.0.0 - delete)</t>
+  </si>
+  <si>
+    <t>Vulnerability ID number (based on version 1.0.0 - delete)</t>
+  </si>
+  <si>
+    <t>Fragility functions and asset values (single-tracked, double-tracked or multiple-tracked; electrified or non-electrified)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do we want to calculate airport damages? Based on aerodrome polygon or specific assets within aerodrome? Now using terminal and runway, but can also add other aerodrome assets as well? We can extent the cost database: maximum damage based on construction costs estimated by Carruthers (2013); The maximum damages are based on construction costs for runway types made of concrete and asphalt (Gibson et al., 2011). </t>
+  </si>
+  <si>
+    <t>Airport</t>
+  </si>
+  <si>
+    <t>Holds all the main details for an aerodrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range asset values -25% and +25% </t>
+  </si>
+  <si>
+    <t>We use the vulnerability curve of FEMA (2013) that we also apply for large power towers for communication towers, because of similar structural characteristics. We assume that only little damage occurs to large communication towers, and this is what this vulnerability curve embodies.</t>
+  </si>
+  <si>
+    <t>We assume that masts are more vulnerable to flooding as they are smaller structures compared to communication towers. We therefore apply the vulnerability curve proposed by Kok et al. (2015) for electricity and communication systems, which assumes higher damage factors compared to the function used for communication towers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[24, 25, 26, 27, 36, 37, 38, 39] </t>
+  </si>
+  <si>
+    <t>Fragility functions and asset values (single or double lines)</t>
   </si>
   <si>
     <r>
@@ -483,15 +567,13 @@
       <rPr>
         <i/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>+ MISO</t>
     </r>
-  </si>
-  <si>
-    <t>Fragility functions and asset value (design-based)</t>
   </si>
   <si>
     <r>
@@ -501,6 +583,7 @@
       <rPr>
         <i/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -509,28 +592,77 @@
     </r>
   </si>
   <si>
-    <t>['F5.1']</t>
-  </si>
-  <si>
-    <t>['F6.1', 'F6.2']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We conduct the construction costs for underground cables from Hall (2009). Based on a survey conducted by Burns &amp; McDonnell (n.d.), underground cables are not likely to suffer direct damage due to flooding. Flooding impacts the above grade equipment that the cables are connected with, and this failure may propagate into the whole energy circuit. This finding is also supported by Hall (2009). However, uprooting of trees (Hall, 2009) and soil liquefaction (Miyamoto, 2019) may cause damages to underground infrastructure. For this study, we assume that no damage occurs to underground cables due to flooding as we assume a relative low flow velocity.  </t>
-  </si>
-  <si>
-    <t>add Hall (2009) data to database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We therefore base our maximum damages on construction costs for overhead lines in urban (for lines) and rural (for minor lines) areas provided by Hall (2009). </t>
+    <t>Distribution line</t>
+  </si>
+  <si>
+    <t>Transmission line</t>
+  </si>
+  <si>
+    <t>Fragility functions</t>
+  </si>
+  <si>
+    <t>[4, 10, 23, 28, 29, 30, 180]</t>
+  </si>
+  <si>
+    <t>Power tower</t>
+  </si>
+  <si>
+    <t>Wastewater treatment plant</t>
+  </si>
+  <si>
+    <t>['F18.1']</t>
+  </si>
+  <si>
+    <t>Water treatment plant</t>
+  </si>
+  <si>
+    <t>Might be good to look for specific construction costs for covered reservoirs OR other vulnerability curves OR skip this one?</t>
+  </si>
+  <si>
+    <t>[8, 9, 91, 92]</t>
+  </si>
+  <si>
+    <t>Huizinga et al. toevoegen?</t>
+  </si>
+  <si>
+    <t>[12, 13, 14]</t>
+  </si>
+  <si>
+    <t>We use construction costs for underground cables from Hall (2009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We use construction costs for distribution overhead lines in urban, suburban and rural areas provided by Hall (2009). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In addition to the database as provided by Nirandjan et al. (2024), we use construction costs for transmission overhead lines in urban, suburban and rural areas provided by Hall (2009). </t>
+  </si>
+  <si>
+    <t>The usage of vulnerability curves and costs in combination with spatial airport data in polygon format may lead to an overestimation of the direct damages to airports. These polygons represent the airports as a whole, including areas that are covered by structural components, but also areas that are less important for risk analysis (e.g., grass). We therefore decide to break down the direct damages to airports by presenting structural damages to terminals and runways. For terminals, we use the generalized vulnerability curves for airports in combination with the maximum damages per m2 as well as additional specific cost values for terminals.</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 243, 248]</t>
+  </si>
+  <si>
+    <t>The usage of vulnerability curves and costs in combination with spatial airport data in polygon format may lead to an overestimation of the direct damages to airports. These polygons represent the airports as a whole, including areas that are covered by structural components, but also areas that are less important for risk analysis (e.g., grass). We therefore decide to break down the direct damages to airports by presenting structural damages to terminals and runways. Due to absence of more specific vulnerability curves for runways, we assume that road curves are applicable. We added cost values for runways.</t>
+  </si>
+  <si>
+    <t>[242, 244, 245, 246, 247]</t>
+  </si>
+  <si>
+    <t>[181, 182, 183, 184, 185, 186]</t>
+  </si>
+  <si>
+    <t>[190, 191, 192]</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">[24, 25, 26, 27, 36, 37, 38, 39] </t>
+      <t xml:space="preserve">[24, 25, 26, 27] </t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -539,89 +671,32 @@
     </r>
   </si>
   <si>
-    <t>Asset values (construction material?)</t>
-  </si>
-  <si>
-    <t>Reclassify to line? Or adjust asset values (e.g., use construction costs for transmission lines carried on wooden poles for minor lines and construction costs for better quality materials for lines)</t>
-  </si>
-  <si>
-    <t>['F18.1', 'F18.2', 'F18.3', 'F18.4', 'F18.5', 'F18.6']</t>
-  </si>
-  <si>
-    <t>[102, 103]</t>
-  </si>
-  <si>
-    <t>Fragility functions (capacity-based and design standards) and asset values</t>
-  </si>
-  <si>
-    <t>['F15.1']</t>
-  </si>
-  <si>
-    <t>[112]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset value </t>
-  </si>
-  <si>
-    <t>[-25% - +25%]</t>
-  </si>
-  <si>
-    <t>['F13.4']</t>
-  </si>
-  <si>
-    <t>['F13.1', 'F13.2', 'F13.3', 'F13.5']</t>
-  </si>
-  <si>
-    <t>Water storage tank</t>
-  </si>
-  <si>
-    <t>[107]</t>
-  </si>
-  <si>
-    <t>[104, 105, 106, 108]</t>
-  </si>
-  <si>
-    <t>['F13.1', 'F13.2', 'F13.3', 'F13.4', 'F13.5']</t>
-  </si>
-  <si>
-    <t>[104, 105, 106, 107, 108]</t>
-  </si>
-  <si>
-    <t>Fragility functions (construction material, storage tank height) and asset values (construction material, storage tank height)</t>
-  </si>
-  <si>
-    <t>['F14.1', 'F14.2', 'F14.3', 'F14.4', 'F14.5', 'F14.6', 'F14.7', 'F14.8', 'F14.9', 'F14.10']</t>
-  </si>
-  <si>
-    <t>[109, 110, 111]</t>
-  </si>
-  <si>
-    <t>Fragility functions (capacity and design type) and asset value (capacity-based)</t>
-  </si>
-  <si>
-    <t>[46, 49, 50, 51, 52, 53, 54, 55, 56, 61, 62, 78]</t>
-  </si>
-  <si>
-    <t>Include cost number 57?</t>
-  </si>
-  <si>
-    <t>Maximum damage ID number (based on original file - delete)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storage tanks are containers that hold drinking water, used for short- or long-term storage. Could be overground, underground or partially underground. </t>
-  </si>
-  <si>
-    <t>Structure that contains a water tank at an altitude to pressurize the water distribution network. Equivalent to an elevated storage tank.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water works  (or water treatment plant) are structures where drinking water is found and applied to the waterpipes network. The public supply of water is stored and treated in this system of buildings and pipes. </t>
+    <t>[24, 25, 26, 27, 36, 37, 38, 39, 187, 188, 189]</t>
+  </si>
+  <si>
+    <t>[31, 32, 33, 193, 194, 195, 196, 197, 198, 199, 207, 208, 209, 210, 211, 212, 213, 221, 222, 223, 224, 225, 226, 227]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[34, 200, 201, 202, 203, 204, 205, 206, 214, 215, 216, 217, 218, 219, 220, 232, 233, 234, 235] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the power towers and power poles we apply the vulnerability curve for distribution circuits. In addition to the cost value provided by Nirandjan et al. (2024), we add additional cost data. Midcontinent Interdependent System Operator (MISO) provides yearly reports with estimated costs for various energy assets, including power towers and poles. </t>
+  </si>
+  <si>
+    <t>[5, 249, 254]</t>
+  </si>
+  <si>
+    <t>[250, 251, 252, 253]</t>
+  </si>
+  <si>
+    <t>[263]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,8 +754,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -691,6 +789,11 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -712,11 +815,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -765,14 +869,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1052,38 +1185,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.81640625" style="1" customWidth="1"/>
-    <col min="4" max="8" width="25.7265625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="45" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="1"/>
-    <col min="11" max="11" width="100.26953125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="25.7265625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.7265625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="25.7265625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25.7265625" style="9" customWidth="1"/>
+    <col min="8" max="9" width="25.7265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="45" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="1"/>
+    <col min="12" max="12" width="100.26953125" style="8" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="1:12" s="20" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:13" s="20" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -1093,30 +1231,33 @@
       <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1126,26 +1267,29 @@
       <c r="C3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="E3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="M3" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1158,21 +1302,24 @@
       <c r="D4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>84</v>
+      <c r="E4" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="K4" s="8" t="s">
+      <c r="G4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="L4" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1185,18 +1332,21 @@
       <c r="D5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>83</v>
+      <c r="E5" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1206,23 +1356,26 @@
       <c r="C6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>82</v>
+      <c r="D6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="5"/>
+      <c r="G6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1232,23 +1385,26 @@
       <c r="C7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>85</v>
+      <c r="D7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="5"/>
+      <c r="G7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1258,23 +1414,26 @@
       <c r="C8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>81</v>
+      <c r="D8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="5"/>
+      <c r="G8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1284,54 +1443,53 @@
       <c r="C9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>86</v>
+      <c r="D9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="5"/>
+      <c r="G9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" ht="319" x14ac:dyDescent="0.35">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="8" t="s">
+      <c r="G10" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="319" x14ac:dyDescent="0.35">
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="1:13" s="5" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -1341,26 +1499,29 @@
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="319" x14ac:dyDescent="0.35">
+      <c r="H11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="5" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
@@ -1373,23 +1534,26 @@
       <c r="D12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="203" x14ac:dyDescent="0.35">
+      <c r="J12" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
@@ -1400,79 +1564,92 @@
         <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="31"/>
+    </row>
+    <row r="15" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
@@ -1483,25 +1660,28 @@
         <v>39</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H16" s="5"/>
+        <v>127</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="K16" s="5"/>
+      <c r="L16" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
@@ -1512,50 +1692,57 @@
         <v>40</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" s="5"/>
+        <v>132</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" ht="261" x14ac:dyDescent="0.35">
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" ht="261" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1566,24 +1753,28 @@
         <v>37</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="32"/>
+    </row>
+    <row r="20" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -1591,26 +1782,30 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+      <c r="H20" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" s="33"/>
+    </row>
+    <row r="21" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -1621,23 +1816,27 @@
         <v>48</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" s="32"/>
+    </row>
+    <row r="22" spans="1:12" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1645,26 +1844,29 @@
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>162</v>
+        <v>146</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="1:11" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
@@ -1675,23 +1877,26 @@
         <v>42</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>156</v>
+        <v>142</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>157</v>
+        <v>143</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="1:11" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>3</v>
       </c>
@@ -1702,68 +1907,79 @@
         <v>29</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:11" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>163</v>
+        <v>147</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="1:11" s="5" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" s="5" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>168</v>
+        <v>154</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="1:11" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>3</v>
       </c>
@@ -1773,445 +1989,550 @@
       <c r="C27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="1:11" s="21" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D27" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" s="21" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>153</v>
+        <v>139</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="H28" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="I28" s="5"/>
-      <c r="K28" s="8"/>
-    </row>
-    <row r="29" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="J28" s="5"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H29" s="5"/>
-      <c r="K29" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="L29" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="L30" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>98</v>
+        <v>184</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1" display="\\" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C11" r:id="rId2" display="\\" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C10" r:id="rId3" display="\\" xr:uid="{1E3AFFB4-656F-459B-9194-FB3F0C197691}"/>
-    <hyperlink ref="C29" r:id="rId4" xr:uid="{4CC1A6A9-4232-45F0-9201-EC8F28D3C30E}"/>
-    <hyperlink ref="C30:C44" r:id="rId5" display="\\" xr:uid="{433B81EC-3149-4D3F-B6E1-418BFF9CE36B}"/>
-    <hyperlink ref="C45" r:id="rId6" xr:uid="{35829217-814D-485A-9071-E3F41459068B}"/>
+    <hyperlink ref="C29" r:id="rId2" xr:uid="{4CC1A6A9-4232-45F0-9201-EC8F28D3C30E}"/>
+    <hyperlink ref="C30:C44" r:id="rId3" display="\\" xr:uid="{433B81EC-3149-4D3F-B6E1-418BFF9CE36B}"/>
+    <hyperlink ref="C45" r:id="rId4" xr:uid="{35829217-814D-485A-9071-E3F41459068B}"/>
+    <hyperlink ref="C10" r:id="rId5" display="\\" xr:uid="{CF1FEFC2-063A-46B3-9D60-564180C684F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2221,7 +2542,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2235,16 +2556,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
@@ -2550,7 +2871,6 @@
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
@@ -2719,7 +3039,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2733,16 +3053,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
@@ -3239,16 +3559,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
